--- a/Test Cases/Preethi/Test Case-Store-1-50.xlsx
+++ b/Test Cases/Preethi/Test Case-Store-1-50.xlsx
@@ -956,11 +956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R193"/>
+  <dimension ref="A1:R162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1832,93 +1832,355 @@
         <v>54</v>
       </c>
     </row>
+    <row r="78" spans="1:8" ht="30">
+      <c r="A78" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="E79" s="5">
+        <v>1</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30">
+      <c r="E80" s="5">
+        <v>2</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30">
+      <c r="E81" s="5">
+        <v>3</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="150">
+      <c r="E82" s="5">
+        <v>4</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30">
+      <c r="E83" s="5">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="30">
+      <c r="E84" s="5">
+        <v>6</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30">
+      <c r="A86" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30">
+      <c r="E87" s="5">
+        <v>2</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30">
+      <c r="E88" s="5">
+        <v>3</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="150">
+      <c r="E89" s="5">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="36" customHeight="1">
+      <c r="E90" s="5">
+        <v>5</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="30">
+      <c r="E91" s="5">
+        <v>6</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="E92" s="5">
+        <v>7</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="45">
+      <c r="A94" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="30">
+      <c r="E95" s="5">
+        <v>2</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="30">
+      <c r="E96" s="5">
+        <v>3</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="150">
+      <c r="E97" s="5">
+        <v>4</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="36" customHeight="1">
+      <c r="E98" s="5">
+        <v>5</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="30">
+      <c r="E99" s="5">
+        <v>6</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="E100" s="5">
+        <v>7</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="30">
+      <c r="A102" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="E103" s="5">
+        <v>1</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="104" spans="1:8" ht="30">
-      <c r="A104" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>72</v>
+      <c r="E104" s="5">
+        <v>2</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30">
       <c r="E105" s="5">
-        <v>1</v>
-      </c>
-      <c r="F105" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H105" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="30">
+        <v>3</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="150">
       <c r="E106" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="30">
       <c r="E107" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="150">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="30">
       <c r="E108" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="E109" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="30">
-      <c r="E110" s="5">
-        <v>6</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="30">
-      <c r="A112" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B112" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="30">
+      <c r="A111" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="D111" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="E112" s="5">
         <v>1</v>
       </c>
@@ -1956,29 +2218,32 @@
         <v>4</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="36" customHeight="1">
+    <row r="116" spans="1:8" ht="30">
       <c r="E116" s="5">
         <v>5</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="E117" s="5">
         <v>6</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -1986,21 +2251,21 @@
         <v>7</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="30">
       <c r="A120" s="18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E120" s="5">
         <v>1</v>
@@ -2045,7 +2310,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="36" customHeight="1">
+    <row r="124" spans="1:8" ht="60">
       <c r="E124" s="5">
         <v>5</v>
       </c>
@@ -2072,650 +2337,385 @@
         <v>42</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="30">
       <c r="A128" s="18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="E128" s="5">
+        <v>1</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="30">
       <c r="E129" s="5">
+        <v>2</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="30">
+      <c r="E130" s="5">
+        <v>3</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="150">
+      <c r="E131" s="5">
+        <v>4</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="60">
+      <c r="E132" s="5">
+        <v>5</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="45">
+      <c r="E133" s="5">
+        <v>6</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="E134" s="5">
+        <v>7</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30">
+      <c r="A136" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E136" s="5">
         <v>1</v>
       </c>
-      <c r="F129" s="21" t="s">
+      <c r="F136" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H129" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="30">
-      <c r="E130" s="5">
+    </row>
+    <row r="137" spans="1:7" ht="30">
+      <c r="E137" s="5">
         <v>2</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F137" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G137" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="30">
-      <c r="E131" s="5">
+    <row r="138" spans="1:7" ht="30">
+      <c r="E138" s="5">
         <v>3</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F138" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="G138" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="150">
-      <c r="E132" s="5">
+    <row r="139" spans="1:7" ht="150">
+      <c r="E139" s="5">
         <v>4</v>
       </c>
-      <c r="F132" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G132" s="3" t="s">
+      <c r="F139" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="30">
-      <c r="E133" s="5">
+    <row r="140" spans="1:7" ht="35.25" customHeight="1">
+      <c r="E140" s="5">
         <v>5</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="30">
-      <c r="E134" s="5">
+      <c r="F140" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="45">
+      <c r="E141" s="5">
         <v>6</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="E135" s="5">
+      <c r="F141" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="E142" s="5">
         <v>7</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="30">
-      <c r="A137" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B137" s="9" t="s">
+      <c r="F142" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="30">
+      <c r="A144" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="E138" s="5">
+      <c r="D144" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E144" s="5">
         <v>1</v>
       </c>
-      <c r="F138" s="21" t="s">
+      <c r="F144" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H138" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="30">
-      <c r="E139" s="5">
+    </row>
+    <row r="145" spans="1:7" ht="30">
+      <c r="E145" s="5">
         <v>2</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="G145" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="30">
-      <c r="E140" s="5">
+    <row r="146" spans="1:7" ht="30">
+      <c r="E146" s="5">
         <v>3</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="F146" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="G146" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="150">
-      <c r="E141" s="5">
+    <row r="147" spans="1:7" ht="150">
+      <c r="E147" s="5">
         <v>4</v>
       </c>
-      <c r="F141" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G141" s="3" t="s">
+      <c r="F147" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G147" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="30">
-      <c r="E142" s="5">
+    <row r="148" spans="1:7" ht="60">
+      <c r="E148" s="5">
         <v>5</v>
       </c>
-      <c r="F142" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="E143" s="5">
+      <c r="F148" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="45">
+      <c r="E149" s="5">
         <v>6</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="E144" s="5">
+      <c r="F149" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="E150" s="5">
         <v>7</v>
       </c>
-      <c r="F144" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="30">
-      <c r="A151" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B151" s="9" t="s">
+      <c r="F150" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="30">
+      <c r="A152" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E151" s="5">
+      <c r="D152" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E152" s="5">
         <v>1</v>
       </c>
-      <c r="F151" s="21" t="s">
+      <c r="F152" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H151" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="30">
-      <c r="E152" s="5">
+    </row>
+    <row r="153" spans="1:7" ht="30">
+      <c r="E153" s="5">
         <v>2</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="F153" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G152" s="3" t="s">
+      <c r="G153" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="30">
-      <c r="E153" s="5">
+    <row r="154" spans="1:7" ht="30">
+      <c r="E154" s="5">
         <v>3</v>
       </c>
-      <c r="F153" s="3" t="s">
+      <c r="F154" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G153" s="3" t="s">
+      <c r="G154" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="150">
-      <c r="E154" s="5">
+    <row r="155" spans="1:7" ht="150">
+      <c r="E155" s="5">
         <v>4</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="F155" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G154" s="3" t="s">
+      <c r="G155" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="60">
-      <c r="E155" s="5">
+    <row r="156" spans="1:7">
+      <c r="E156" s="5">
         <v>5</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="30">
-      <c r="E156" s="5">
+      <c r="F156" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="30">
+      <c r="E157" s="5">
         <v>6</v>
       </c>
-      <c r="F156" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="E157" s="5">
+      <c r="F157" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="120">
+      <c r="E158" s="5">
         <v>7</v>
       </c>
-      <c r="F157" s="3" t="s">
+      <c r="F158" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="30">
+      <c r="E159" s="5">
+        <v>8</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="E160" s="5">
+        <v>9</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161" spans="5:7" ht="45">
+      <c r="E161" s="5">
+        <v>10</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="162" spans="5:7">
+      <c r="E162" s="5">
+        <v>11</v>
+      </c>
+      <c r="F162" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G157" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="30">
-      <c r="A159" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E159" s="5">
-        <v>1</v>
-      </c>
-      <c r="F159" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H159" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="30">
-      <c r="E160" s="5">
-        <v>2</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="30">
-      <c r="E161" s="5">
-        <v>3</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="150">
-      <c r="E162" s="5">
-        <v>4</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="G162" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="60">
-      <c r="E163" s="5">
-        <v>5</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="45">
-      <c r="E164" s="5">
-        <v>6</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="E165" s="5">
-        <v>7</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="30">
-      <c r="A167" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E167" s="5">
-        <v>1</v>
-      </c>
-      <c r="F167" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="30">
-      <c r="E168" s="5">
-        <v>2</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="30">
-      <c r="E169" s="5">
-        <v>3</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="150">
-      <c r="E170" s="5">
-        <v>4</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="35.25" customHeight="1">
-      <c r="E171" s="5">
-        <v>5</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="45">
-      <c r="E172" s="5">
-        <v>6</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="E173" s="5">
-        <v>7</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="30">
-      <c r="A175" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E175" s="5">
-        <v>1</v>
-      </c>
-      <c r="F175" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="30">
-      <c r="E176" s="5">
-        <v>2</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="30">
-      <c r="E177" s="5">
-        <v>3</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="150">
-      <c r="E178" s="5">
-        <v>4</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="60">
-      <c r="E179" s="5">
-        <v>5</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="45">
-      <c r="E180" s="5">
-        <v>6</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="E181" s="5">
-        <v>7</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="30">
-      <c r="A183" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E183" s="5">
-        <v>1</v>
-      </c>
-      <c r="F183" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="30">
-      <c r="E184" s="5">
-        <v>2</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="30">
-      <c r="E185" s="5">
-        <v>3</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="150">
-      <c r="E186" s="5">
-        <v>4</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="E187" s="5">
-        <v>5</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="30">
-      <c r="E188" s="5">
-        <v>6</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="120">
-      <c r="E189" s="5">
-        <v>7</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="30">
-      <c r="E190" s="5">
-        <v>8</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="E191" s="5">
-        <v>9</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="45">
-      <c r="E192" s="5">
-        <v>10</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="193" spans="5:7">
-      <c r="E193" s="5">
-        <v>11</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G193" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137 B183 B175 B167 B159 B151 B120 B112 B104 B72 B128 B47 B40 B2:B3 B24 B15 B8 B33 B55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152 B144 B136 B128 B120 B111 B94 B86 B78 B102 B72 B47 B40 B2:B3 B24 B15 B8 B33 B55">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 C2:C3">
@@ -2742,14 +2742,14 @@
     <hyperlink ref="H25" r:id="rId4"/>
     <hyperlink ref="H55" r:id="rId5"/>
     <hyperlink ref="H72" r:id="rId6"/>
-    <hyperlink ref="H129" r:id="rId7"/>
-    <hyperlink ref="H138" r:id="rId8"/>
+    <hyperlink ref="H103" r:id="rId7"/>
+    <hyperlink ref="H112" r:id="rId8"/>
     <hyperlink ref="H48" r:id="rId9"/>
-    <hyperlink ref="H105" r:id="rId10"/>
-    <hyperlink ref="H112" r:id="rId11"/>
-    <hyperlink ref="H120" r:id="rId12"/>
-    <hyperlink ref="H151" r:id="rId13"/>
-    <hyperlink ref="H159" r:id="rId14"/>
+    <hyperlink ref="H79" r:id="rId10"/>
+    <hyperlink ref="H86" r:id="rId11"/>
+    <hyperlink ref="H94" r:id="rId12"/>
+    <hyperlink ref="H120" r:id="rId13"/>
+    <hyperlink ref="H128" r:id="rId14"/>
     <hyperlink ref="H34" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
